--- a/WorkBot/refactor/data/orders/Webstaurant/CompletedOrders/Webstaurant_Bakery_2025-08-03.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/CompletedOrders/Webstaurant_Bakery_2025-08-03.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,357 +664,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>10207030</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Herb - Chives (Dried)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>164.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>164.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10207579</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Salt - Sea Coarse</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>56.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>711RGRMCRK50</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Graham Cracker - Crumb</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>118.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>236.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>113PNWHRW5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Nuts - Pine</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>127.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>510.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>245885CB</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Box Cake - 8x8x5</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>34.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>69.62</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>63204854</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Degreaser - for Panini Press (Dawn)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>47.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>433SLINERBL</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sheet Pan Liner - Silicone Coated</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>76.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>307.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>245882WB</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Box Cake - 8x8x2.5 (window)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>68.60</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>68.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>245663WB</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Box Cake - 6x6x3 Window</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>63.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>63.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>588URN1001</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Urnex - Brewer Cleaner</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>433qlinerbl</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sheet Pan Liner - White</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>43.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>219.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>53A213012</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Simple Green - Degreaser</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>68.58</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>68.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>182RRF8</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Bag - Poly (Retail Portion)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>21.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
